--- a/Data_clean/MCAS/Estados_US/Edos_USA_2022/ILLINOIS_2022.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2022/ILLINOIS_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1731"/>
+  <dimension ref="A1:D1725"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C10">
@@ -504,7 +504,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C11">
@@ -797,7 +797,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C32">
@@ -836,7 +836,7 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C35">
@@ -862,7 +862,7 @@
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C37">
@@ -940,7 +940,7 @@
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C43">
@@ -992,7 +992,7 @@
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C47">
@@ -1304,7 +1304,7 @@
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C71">
@@ -1473,7 +1473,7 @@
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C84">
@@ -1959,7 +1959,7 @@
     <row r="121">
       <c r="B121" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C121">
@@ -1998,7 +1998,7 @@
     <row r="124">
       <c r="B124" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C124">
@@ -2193,7 +2193,7 @@
     <row r="139">
       <c r="B139" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C139">
@@ -2245,7 +2245,7 @@
     <row r="143">
       <c r="B143" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C143">
@@ -2484,7 +2484,7 @@
     <row r="161">
       <c r="B161" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C161">
@@ -2671,7 +2671,7 @@
     <row r="175">
       <c r="B175" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C175">
@@ -2697,7 +2697,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -2754,7 +2754,7 @@
     <row r="181">
       <c r="B181" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C181">
@@ -2774,7 +2774,7 @@
         <v>470</v>
       </c>
       <c r="D182">
-        <v>0.009711546408794115</v>
+        <v>0.009711546408794116</v>
       </c>
     </row>
     <row r="183">
@@ -2954,7 +2954,7 @@
     <row r="196">
       <c r="B196" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C196">
@@ -3123,7 +3123,7 @@
     <row r="209">
       <c r="B209" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C209">
@@ -3175,7 +3175,7 @@
     <row r="213">
       <c r="B213" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C213">
@@ -3253,7 +3253,7 @@
     <row r="219">
       <c r="B219" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C219">
@@ -3266,7 +3266,7 @@
     <row r="220">
       <c r="B220" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C220">
@@ -3279,7 +3279,7 @@
     <row r="221">
       <c r="B221" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C221">
@@ -3409,12 +3409,12 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C231">
@@ -3453,7 +3453,7 @@
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C234">
@@ -3466,7 +3466,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C235">
@@ -3479,7 +3479,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>Almoloya del Río</t>
+          <t>Almoloya Del Río</t>
         </is>
       </c>
       <c r="C236">
@@ -3557,7 +3557,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C242">
@@ -3655,13 +3655,13 @@
         <v>45</v>
       </c>
       <c r="D249">
-        <v>0.0009298289114802877</v>
+        <v>0.0009298289114802876</v>
       </c>
     </row>
     <row r="250">
       <c r="B250" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C250">
@@ -3726,7 +3726,7 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C255">
@@ -3817,7 +3817,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C262">
@@ -3908,7 +3908,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C269">
@@ -3921,7 +3921,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C270">
@@ -4142,7 +4142,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C287">
@@ -4298,7 +4298,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>San Antonio la Isla</t>
+          <t>San Antonio La Isla</t>
         </is>
       </c>
       <c r="C299">
@@ -4311,7 +4311,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C300">
@@ -4324,7 +4324,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C301">
@@ -4350,7 +4350,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C303">
@@ -4376,7 +4376,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C305">
@@ -4506,14 +4506,14 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C315">
         <v>45</v>
       </c>
       <c r="D315">
-        <v>0.0009298289114802877</v>
+        <v>0.0009298289114802876</v>
       </c>
     </row>
     <row r="316">
@@ -4662,7 +4662,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C327">
@@ -4740,7 +4740,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C333">
@@ -4753,7 +4753,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C334">
@@ -4766,7 +4766,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C335">
@@ -4779,7 +4779,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C336">
@@ -4966,7 +4966,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C350">
@@ -4979,7 +4979,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C351">
@@ -5083,7 +5083,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C359">
@@ -5135,7 +5135,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C363">
@@ -5239,7 +5239,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C371">
@@ -5291,7 +5291,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C375">
@@ -5317,7 +5317,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C377">
@@ -5343,7 +5343,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C379">
@@ -5369,7 +5369,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C381">
@@ -5395,7 +5395,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C383">
@@ -5460,7 +5460,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C388">
@@ -5519,7 +5519,7 @@
         <v>4567</v>
       </c>
       <c r="D392">
-        <v>0.09436730308289941</v>
+        <v>0.0943673030828994</v>
       </c>
     </row>
     <row r="393">
@@ -5530,7 +5530,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C393">
@@ -5563,13 +5563,13 @@
         <v>44</v>
       </c>
       <c r="D395">
-        <v>0.0009091660467807257</v>
+        <v>0.0009091660467807255</v>
       </c>
     </row>
     <row r="396">
       <c r="B396" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C396">
@@ -5582,7 +5582,7 @@
     <row r="397">
       <c r="B397" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C397">
@@ -5634,20 +5634,20 @@
     <row r="401">
       <c r="B401" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C401">
         <v>44</v>
       </c>
       <c r="D401">
-        <v>0.0009091660467807257</v>
+        <v>0.0009091660467807255</v>
       </c>
     </row>
     <row r="402">
       <c r="B402" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C402">
@@ -5673,7 +5673,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C404">
@@ -5686,7 +5686,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C405">
@@ -5725,7 +5725,7 @@
     <row r="408">
       <c r="B408" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C408">
@@ -5738,7 +5738,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C409">
@@ -5751,7 +5751,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C410">
@@ -5764,7 +5764,7 @@
     <row r="411">
       <c r="B411" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C411">
@@ -5829,7 +5829,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C416">
@@ -5842,7 +5842,7 @@
     <row r="417">
       <c r="B417" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C417">
@@ -5862,7 +5862,7 @@
         <v>44</v>
       </c>
       <c r="D418">
-        <v>0.0009091660467807257</v>
+        <v>0.0009091660467807255</v>
       </c>
     </row>
     <row r="419">
@@ -5894,7 +5894,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C421">
@@ -5907,7 +5907,7 @@
     <row r="422">
       <c r="B422" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C422">
@@ -5985,7 +5985,7 @@
     <row r="428">
       <c r="B428" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C428">
@@ -5998,7 +5998,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C429">
@@ -6024,7 +6024,7 @@
     <row r="431">
       <c r="B431" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C431">
@@ -6037,7 +6037,7 @@
     <row r="432">
       <c r="B432" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C432">
@@ -6063,7 +6063,7 @@
     <row r="434">
       <c r="B434" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C434">
@@ -6102,7 +6102,7 @@
     <row r="437">
       <c r="B437" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C437">
@@ -6271,7 +6271,7 @@
     <row r="450">
       <c r="B450" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C450">
@@ -6297,7 +6297,7 @@
     <row r="452">
       <c r="B452" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C452">
@@ -6323,7 +6323,7 @@
     <row r="454">
       <c r="B454" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C454">
@@ -6349,7 +6349,7 @@
     <row r="456">
       <c r="B456" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C456">
@@ -6401,7 +6401,7 @@
     <row r="460">
       <c r="B460" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C460">
@@ -6562,7 +6562,7 @@
     <row r="472">
       <c r="B472" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C472">
@@ -6627,7 +6627,7 @@
     <row r="477">
       <c r="B477" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C477">
@@ -6640,7 +6640,7 @@
     <row r="478">
       <c r="B478" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C478">
@@ -6718,14 +6718,14 @@
     <row r="484">
       <c r="B484" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C484">
         <v>45</v>
       </c>
       <c r="D484">
-        <v>0.0009298289114802877</v>
+        <v>0.0009298289114802876</v>
       </c>
     </row>
     <row r="485">
@@ -6796,7 +6796,7 @@
     <row r="490">
       <c r="B490" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C490">
@@ -6848,7 +6848,7 @@
     <row r="494">
       <c r="B494" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C494">
@@ -6887,7 +6887,7 @@
     <row r="497">
       <c r="B497" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C497">
@@ -6978,7 +6978,7 @@
     <row r="504">
       <c r="B504" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C504">
@@ -6991,7 +6991,7 @@
     <row r="505">
       <c r="B505" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C505">
@@ -7004,7 +7004,7 @@
     <row r="506">
       <c r="B506" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C506">
@@ -7030,7 +7030,7 @@
     <row r="508">
       <c r="B508" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C508">
@@ -7043,7 +7043,7 @@
     <row r="509">
       <c r="B509" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C509">
@@ -7069,7 +7069,7 @@
     <row r="511">
       <c r="B511" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C511">
@@ -7134,7 +7134,7 @@
     <row r="516">
       <c r="B516" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C516">
@@ -7147,7 +7147,7 @@
     <row r="517">
       <c r="B517" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C517">
@@ -7199,7 +7199,7 @@
     <row r="521">
       <c r="B521" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C521">
@@ -7225,7 +7225,7 @@
     <row r="523">
       <c r="B523" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C523">
@@ -7238,7 +7238,7 @@
     <row r="524">
       <c r="B524" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C524">
@@ -7264,7 +7264,7 @@
     <row r="526">
       <c r="B526" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C526">
@@ -7342,7 +7342,7 @@
     <row r="532">
       <c r="B532" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C532">
@@ -7355,7 +7355,7 @@
     <row r="533">
       <c r="B533" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C533">
@@ -7368,7 +7368,7 @@
     <row r="534">
       <c r="B534" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C534">
@@ -7394,7 +7394,7 @@
     <row r="536">
       <c r="B536" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C536">
@@ -7407,7 +7407,7 @@
     <row r="537">
       <c r="B537" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C537">
@@ -7477,7 +7477,7 @@
     <row r="542">
       <c r="B542" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C542">
@@ -7490,7 +7490,7 @@
     <row r="543">
       <c r="B543" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C543">
@@ -7555,7 +7555,7 @@
     <row r="548">
       <c r="B548" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C548">
@@ -7594,7 +7594,7 @@
     <row r="551">
       <c r="B551" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C551">
@@ -7620,7 +7620,7 @@
     <row r="553">
       <c r="B553" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C553">
@@ -7698,7 +7698,7 @@
     <row r="559">
       <c r="B559" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C559">
@@ -7789,7 +7789,7 @@
     <row r="566">
       <c r="B566" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C566">
@@ -7802,7 +7802,7 @@
     <row r="567">
       <c r="B567" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C567">
@@ -7893,7 +7893,7 @@
     <row r="574">
       <c r="B574" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C574">
@@ -7984,7 +7984,7 @@
     <row r="581">
       <c r="B581" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C581">
@@ -7997,7 +7997,7 @@
     <row r="582">
       <c r="B582" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C582">
@@ -8010,7 +8010,7 @@
     <row r="583">
       <c r="B583" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C583">
@@ -8062,7 +8062,7 @@
     <row r="587">
       <c r="B587" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C587">
@@ -8140,7 +8140,7 @@
     <row r="593">
       <c r="B593" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C593">
@@ -8153,7 +8153,7 @@
     <row r="594">
       <c r="B594" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C594">
@@ -8257,7 +8257,7 @@
     <row r="602">
       <c r="B602" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C602">
@@ -8322,7 +8322,7 @@
     <row r="607">
       <c r="B607" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C607">
@@ -8335,7 +8335,7 @@
     <row r="608">
       <c r="B608" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C608">
@@ -8361,7 +8361,7 @@
     <row r="610">
       <c r="B610" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C610">
@@ -8387,7 +8387,7 @@
     <row r="612">
       <c r="B612" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C612">
@@ -8413,7 +8413,7 @@
     <row r="614">
       <c r="B614" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C614">
@@ -8426,7 +8426,7 @@
     <row r="615">
       <c r="B615" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C615">
@@ -8439,7 +8439,7 @@
     <row r="616">
       <c r="B616" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C616">
@@ -8478,7 +8478,7 @@
     <row r="619">
       <c r="B619" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C619">
@@ -8491,7 +8491,7 @@
     <row r="620">
       <c r="B620" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C620">
@@ -8530,7 +8530,7 @@
     <row r="623">
       <c r="B623" t="inlineStr">
         <is>
-          <t>Techaluta de Montenegro</t>
+          <t>Techaluta De Montenegro</t>
         </is>
       </c>
       <c r="C623">
@@ -8569,7 +8569,7 @@
     <row r="626">
       <c r="B626" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C626">
@@ -8582,7 +8582,7 @@
     <row r="627">
       <c r="B627" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C627">
@@ -8621,7 +8621,7 @@
     <row r="630">
       <c r="B630" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C630">
@@ -8634,7 +8634,7 @@
     <row r="631">
       <c r="B631" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C631">
@@ -8790,7 +8790,7 @@
     <row r="643">
       <c r="B643" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C643">
@@ -8803,7 +8803,7 @@
     <row r="644">
       <c r="B644" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C644">
@@ -8816,7 +8816,7 @@
     <row r="645">
       <c r="B645" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C645">
@@ -8829,7 +8829,7 @@
     <row r="646">
       <c r="B646" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C646">
@@ -8894,7 +8894,7 @@
     <row r="651">
       <c r="B651" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C651">
@@ -8907,7 +8907,7 @@
     <row r="652">
       <c r="B652" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C652">
@@ -8946,7 +8946,7 @@
     <row r="655">
       <c r="B655" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C655">
@@ -8959,7 +8959,7 @@
     <row r="656">
       <c r="B656" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C656">
@@ -9302,7 +9302,7 @@
     <row r="682">
       <c r="B682" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C682">
@@ -9328,7 +9328,7 @@
     <row r="684">
       <c r="B684" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C684">
@@ -10199,7 +10199,7 @@
     <row r="751">
       <c r="B751" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C751">
@@ -10523,7 +10523,7 @@
         <v>44</v>
       </c>
       <c r="D775">
-        <v>0.0009091660467807257</v>
+        <v>0.0009091660467807255</v>
       </c>
     </row>
     <row r="776">
@@ -10542,7 +10542,7 @@
     <row r="777">
       <c r="B777" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C777">
@@ -10685,7 +10685,7 @@
     <row r="788">
       <c r="B788" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C788">
@@ -10763,7 +10763,7 @@
     <row r="794">
       <c r="B794" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C794">
@@ -10789,7 +10789,7 @@
     <row r="796">
       <c r="B796" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C796">
@@ -10880,7 +10880,7 @@
     <row r="803">
       <c r="B803" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C803">
@@ -10937,7 +10937,7 @@
     <row r="807">
       <c r="B807" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C807">
@@ -10963,7 +10963,7 @@
     <row r="809">
       <c r="B809" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C809">
@@ -11054,7 +11054,7 @@
     <row r="816">
       <c r="B816" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C816">
@@ -11100,7 +11100,7 @@
         <v>45</v>
       </c>
       <c r="D819">
-        <v>0.0009298289114802877</v>
+        <v>0.0009298289114802876</v>
       </c>
     </row>
     <row r="820">
@@ -11306,7 +11306,7 @@
     <row r="835">
       <c r="B835" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C835">
@@ -11319,7 +11319,7 @@
     <row r="836">
       <c r="B836" t="inlineStr">
         <is>
-          <t>MonteMorelos</t>
+          <t>Montemorelos</t>
         </is>
       </c>
       <c r="C836">
@@ -11384,7 +11384,7 @@
     <row r="841">
       <c r="B841" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C841">
@@ -11480,7 +11480,7 @@
     <row r="848">
       <c r="B848" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C848">
@@ -11558,7 +11558,7 @@
     <row r="854">
       <c r="B854" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C854">
@@ -11597,7 +11597,7 @@
     <row r="857">
       <c r="B857" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C857">
@@ -11610,7 +11610,7 @@
     <row r="858">
       <c r="B858" t="inlineStr">
         <is>
-          <t>Ciénega de Zimatlán</t>
+          <t>Ciénega De Zimatlán</t>
         </is>
       </c>
       <c r="C858">
@@ -11623,7 +11623,7 @@
     <row r="859">
       <c r="B859" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C859">
@@ -11675,7 +11675,7 @@
     <row r="863">
       <c r="B863" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C863">
@@ -11688,7 +11688,7 @@
     <row r="864">
       <c r="B864" t="inlineStr">
         <is>
-          <t>Cuyamecalco Villa de Zaragoza</t>
+          <t>Cuyamecalco Villa De Zaragoza</t>
         </is>
       </c>
       <c r="C864">
@@ -11701,7 +11701,7 @@
     <row r="865">
       <c r="B865" t="inlineStr">
         <is>
-          <t>El Barrio de la Soledad</t>
+          <t>El Barrio De La Soledad</t>
         </is>
       </c>
       <c r="C865">
@@ -11714,7 +11714,7 @@
     <row r="866">
       <c r="B866" t="inlineStr">
         <is>
-          <t>Guadalupe de Ramírez</t>
+          <t>Guadalupe De Ramírez</t>
         </is>
       </c>
       <c r="C866">
@@ -11740,7 +11740,7 @@
     <row r="868">
       <c r="B868" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C868">
@@ -11753,7 +11753,7 @@
     <row r="869">
       <c r="B869" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C869">
@@ -11766,7 +11766,7 @@
     <row r="870">
       <c r="B870" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C870">
@@ -11792,7 +11792,7 @@
     <row r="872">
       <c r="B872" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C872">
@@ -11818,7 +11818,7 @@
     <row r="874">
       <c r="B874" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C874">
@@ -11831,7 +11831,7 @@
     <row r="875">
       <c r="B875" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C875">
@@ -11974,7 +11974,7 @@
     <row r="886">
       <c r="B886" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C886">
@@ -11987,7 +11987,7 @@
     <row r="887">
       <c r="B887" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C887">
@@ -12013,7 +12013,7 @@
     <row r="889">
       <c r="B889" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C889">
@@ -12039,7 +12039,7 @@
     <row r="891">
       <c r="B891" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C891">
@@ -12052,7 +12052,7 @@
     <row r="892">
       <c r="B892" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C892">
@@ -12078,7 +12078,7 @@
     <row r="894">
       <c r="B894" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C894">
@@ -12091,7 +12091,7 @@
     <row r="895">
       <c r="B895" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C895">
@@ -12104,7 +12104,7 @@
     <row r="896">
       <c r="B896" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C896">
@@ -12130,20 +12130,20 @@
     <row r="898">
       <c r="B898" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C898">
         <v>45</v>
       </c>
       <c r="D898">
-        <v>0.0009298289114802877</v>
+        <v>0.0009298289114802876</v>
       </c>
     </row>
     <row r="899">
       <c r="B899" t="inlineStr">
         <is>
-          <t>Reforma de Pineda</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C899">
@@ -12156,7 +12156,7 @@
     <row r="900">
       <c r="B900" t="inlineStr">
         <is>
-          <t>Rojas de Cuauhtémoc</t>
+          <t>Rojas De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C900">
@@ -12208,7 +12208,7 @@
     <row r="904">
       <c r="B904" t="inlineStr">
         <is>
-          <t>San Agustín de las Juntas</t>
+          <t>San Agustín De Las Juntas</t>
         </is>
       </c>
       <c r="C904">
@@ -12442,7 +12442,7 @@
     <row r="922">
       <c r="B922" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C922">
@@ -12507,7 +12507,7 @@
     <row r="927">
       <c r="B927" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C927">
@@ -12767,7 +12767,7 @@
     <row r="947">
       <c r="B947" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C947">
@@ -12897,7 +12897,7 @@
     <row r="957">
       <c r="B957" t="inlineStr">
         <is>
-          <t>San Juan de los Cués</t>
+          <t>San Juan De Los Cués</t>
         </is>
       </c>
       <c r="C957">
@@ -13326,7 +13326,7 @@
     <row r="990">
       <c r="B990" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C990">
@@ -13339,7 +13339,7 @@
     <row r="991">
       <c r="B991" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C991">
@@ -13586,7 +13586,7 @@
     <row r="1010">
       <c r="B1010" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C1010">
@@ -13794,7 +13794,7 @@
     <row r="1026">
       <c r="B1026" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Ayutla</t>
+          <t>San Pedro Y San Pablo Ayutla</t>
         </is>
       </c>
       <c r="C1026">
@@ -13807,7 +13807,7 @@
     <row r="1027">
       <c r="B1027" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Tequixtepec</t>
+          <t>San Pedro Y San Pablo Tequixtepec</t>
         </is>
       </c>
       <c r="C1027">
@@ -14080,7 +14080,7 @@
     <row r="1048">
       <c r="B1048" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C1048">
@@ -14093,7 +14093,7 @@
     <row r="1049">
       <c r="B1049" t="inlineStr">
         <is>
-          <t>Santa Lucía del Camino</t>
+          <t>Santa Lucía Del Camino</t>
         </is>
       </c>
       <c r="C1049">
@@ -14262,7 +14262,7 @@
     <row r="1062">
       <c r="B1062" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C1062">
@@ -14704,7 +14704,7 @@
     <row r="1096">
       <c r="B1096" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C1096">
@@ -14860,7 +14860,7 @@
     <row r="1108">
       <c r="B1108" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C1108">
@@ -14873,7 +14873,7 @@
     <row r="1109">
       <c r="B1109" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C1109">
@@ -14886,7 +14886,7 @@
     <row r="1110">
       <c r="B1110" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C1110">
@@ -14899,7 +14899,7 @@
     <row r="1111">
       <c r="B1111" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C1111">
@@ -14912,7 +14912,7 @@
     <row r="1112">
       <c r="B1112" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C1112">
@@ -14925,7 +14925,7 @@
     <row r="1113">
       <c r="B1113" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C1113">
@@ -14938,7 +14938,7 @@
     <row r="1114">
       <c r="B1114" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C1114">
@@ -14951,7 +14951,7 @@
     <row r="1115">
       <c r="B1115" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C1115">
@@ -14964,7 +14964,7 @@
     <row r="1116">
       <c r="B1116" t="inlineStr">
         <is>
-          <t>Villa Tejúpam de la Unión</t>
+          <t>Villa Tejúpam De La Unión</t>
         </is>
       </c>
       <c r="C1116">
@@ -14990,7 +14990,7 @@
     <row r="1118">
       <c r="B1118" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C1118">
@@ -15016,7 +15016,7 @@
     <row r="1120">
       <c r="B1120" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C1120">
@@ -15320,7 +15320,7 @@
     <row r="1143">
       <c r="B1143" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C1143">
@@ -15372,7 +15372,7 @@
     <row r="1147">
       <c r="B1147" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C1147">
@@ -15489,7 +15489,7 @@
     <row r="1156">
       <c r="B1156" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C1156">
@@ -15632,7 +15632,7 @@
     <row r="1167">
       <c r="B1167" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C1167">
@@ -15645,7 +15645,7 @@
     <row r="1168">
       <c r="B1168" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C1168">
@@ -15840,7 +15840,7 @@
     <row r="1183">
       <c r="B1183" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C1183">
@@ -15853,7 +15853,7 @@
     <row r="1184">
       <c r="B1184" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C1184">
@@ -15905,7 +15905,7 @@
     <row r="1188">
       <c r="B1188" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C1188">
@@ -15931,7 +15931,7 @@
     <row r="1190">
       <c r="B1190" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C1190">
@@ -16035,7 +16035,7 @@
     <row r="1198">
       <c r="B1198" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C1198">
@@ -16152,7 +16152,7 @@
     <row r="1207">
       <c r="B1207" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C1207">
@@ -16425,7 +16425,7 @@
     <row r="1228">
       <c r="B1228" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C1228">
@@ -16477,7 +16477,7 @@
     <row r="1232">
       <c r="B1232" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C1232">
@@ -16490,7 +16490,7 @@
     <row r="1233">
       <c r="B1233" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C1233">
@@ -16555,7 +16555,7 @@
     <row r="1238">
       <c r="B1238" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C1238">
@@ -16659,7 +16659,7 @@
     <row r="1246">
       <c r="B1246" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C1246">
@@ -16672,7 +16672,7 @@
     <row r="1247">
       <c r="B1247" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C1247">
@@ -16750,7 +16750,7 @@
     <row r="1253">
       <c r="B1253" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C1253">
@@ -16763,7 +16763,7 @@
     <row r="1254">
       <c r="B1254" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C1254">
@@ -16828,7 +16828,7 @@
     <row r="1259">
       <c r="B1259" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1259">
@@ -17036,7 +17036,7 @@
     <row r="1275">
       <c r="B1275" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C1275">
@@ -17101,7 +17101,7 @@
     <row r="1280">
       <c r="B1280" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C1280">
@@ -17262,7 +17262,7 @@
       </c>
       <c r="B1292" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1292">
@@ -17288,7 +17288,7 @@
     <row r="1294">
       <c r="B1294" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1294">
@@ -17353,7 +17353,7 @@
     <row r="1299">
       <c r="B1299" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1299">
@@ -17366,7 +17366,7 @@
     <row r="1300">
       <c r="B1300" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1300">
@@ -17392,7 +17392,7 @@
     <row r="1302">
       <c r="B1302" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1302">
@@ -17431,7 +17431,7 @@
     <row r="1305">
       <c r="B1305" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1305">
@@ -17597,7 +17597,7 @@
     <row r="1317">
       <c r="B1317" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C1317">
@@ -17675,7 +17675,7 @@
     <row r="1323">
       <c r="B1323" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1323">
@@ -17779,7 +17779,7 @@
     <row r="1331">
       <c r="B1331" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1331">
@@ -17857,7 +17857,7 @@
     <row r="1337">
       <c r="B1337" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1337">
@@ -17935,7 +17935,7 @@
     <row r="1343">
       <c r="B1343" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1343">
@@ -17961,7 +17961,7 @@
     <row r="1345">
       <c r="B1345" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C1345">
@@ -18039,7 +18039,7 @@
     <row r="1351">
       <c r="B1351" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C1351">
@@ -18091,7 +18091,7 @@
     <row r="1355">
       <c r="B1355" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C1355">
@@ -18104,7 +18104,7 @@
     <row r="1356">
       <c r="B1356" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1356">
@@ -18117,7 +18117,7 @@
     <row r="1357">
       <c r="B1357" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C1357">
@@ -18130,7 +18130,7 @@
     <row r="1358">
       <c r="B1358" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C1358">
@@ -18143,7 +18143,7 @@
     <row r="1359">
       <c r="B1359" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1359">
@@ -18156,7 +18156,7 @@
     <row r="1360">
       <c r="B1360" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1360">
@@ -18673,7 +18673,7 @@
     <row r="1399">
       <c r="B1399" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1399">
@@ -19203,7 +19203,7 @@
     <row r="1439">
       <c r="B1439" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1439">
@@ -19299,7 +19299,7 @@
       </c>
       <c r="B1446" t="inlineStr">
         <is>
-          <t>Acuamanala de Miguel Hidalgo</t>
+          <t>Acuamanala De Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C1446">
@@ -19325,7 +19325,7 @@
     <row r="1448">
       <c r="B1448" t="inlineStr">
         <is>
-          <t>Amaxac de Guerrero</t>
+          <t>Amaxac De Guerrero</t>
         </is>
       </c>
       <c r="C1448">
@@ -19403,7 +19403,7 @@
     <row r="1454">
       <c r="B1454" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1454">
@@ -19494,7 +19494,7 @@
     <row r="1461">
       <c r="B1461" t="inlineStr">
         <is>
-          <t>Muñoz de Domingo Arenas</t>
+          <t>Muñoz De Domingo Arenas</t>
         </is>
       </c>
       <c r="C1461">
@@ -19507,7 +19507,7 @@
     <row r="1462">
       <c r="B1462" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1462">
@@ -19546,7 +19546,7 @@
     <row r="1465">
       <c r="B1465" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1465">
@@ -19559,7 +19559,7 @@
     <row r="1466">
       <c r="B1466" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1466">
@@ -19624,7 +19624,7 @@
     <row r="1471">
       <c r="B1471" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1471">
@@ -19663,7 +19663,7 @@
     <row r="1474">
       <c r="B1474" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1474">
@@ -19819,7 +19819,7 @@
     <row r="1486">
       <c r="B1486" t="inlineStr">
         <is>
-          <t>Ziltlaltépec de Trinidad Sánchez Santos</t>
+          <t>Ziltlaltépec De Trinidad Sánchez Santos</t>
         </is>
       </c>
       <c r="C1486">
@@ -19928,7 +19928,7 @@
     <row r="1494">
       <c r="B1494" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1494">
@@ -19967,7 +19967,7 @@
     <row r="1497">
       <c r="B1497" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1497">
@@ -20039,7 +20039,7 @@
         <v>44</v>
       </c>
       <c r="D1502">
-        <v>0.0009091660467807257</v>
+        <v>0.0009091660467807255</v>
       </c>
     </row>
     <row r="1503">
@@ -20084,7 +20084,7 @@
     <row r="1506">
       <c r="B1506" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1506">
@@ -20097,7 +20097,7 @@
     <row r="1507">
       <c r="B1507" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C1507">
@@ -20136,7 +20136,7 @@
     <row r="1510">
       <c r="B1510" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1510">
@@ -20253,7 +20253,7 @@
     <row r="1519">
       <c r="B1519" t="inlineStr">
         <is>
-          <t>Chinampa de Gorostiza</t>
+          <t>Chinampa De Gorostiza</t>
         </is>
       </c>
       <c r="C1519">
@@ -20383,7 +20383,7 @@
     <row r="1529">
       <c r="B1529" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1529">
@@ -20396,7 +20396,7 @@
     <row r="1530">
       <c r="B1530" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1530">
@@ -20578,7 +20578,7 @@
     <row r="1544">
       <c r="B1544" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1544">
@@ -20591,7 +20591,7 @@
     <row r="1545">
       <c r="B1545" t="inlineStr">
         <is>
-          <t>Huiloapan de Cuauhtémoc</t>
+          <t>Huiloapan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1545">
@@ -20604,7 +20604,7 @@
     <row r="1546">
       <c r="B1546" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1546">
@@ -20643,7 +20643,7 @@
     <row r="1549">
       <c r="B1549" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C1549">
@@ -20656,7 +20656,7 @@
     <row r="1550">
       <c r="B1550" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1550">
@@ -20669,7 +20669,7 @@
     <row r="1551">
       <c r="B1551" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1551">
@@ -20682,7 +20682,7 @@
     <row r="1552">
       <c r="B1552" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1552">
@@ -20812,7 +20812,7 @@
     <row r="1562">
       <c r="B1562" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1562">
@@ -20851,14 +20851,14 @@
     <row r="1565">
       <c r="B1565" t="inlineStr">
         <is>
-          <t>Landero y Coss</t>
+          <t>Landero Y Coss</t>
         </is>
       </c>
       <c r="C1565">
         <v>45</v>
       </c>
       <c r="D1565">
-        <v>0.0009298289114802877</v>
+        <v>0.0009298289114802876</v>
       </c>
     </row>
     <row r="1566">
@@ -20890,7 +20890,7 @@
     <row r="1568">
       <c r="B1568" t="inlineStr">
         <is>
-          <t>Las Vigas de Ramírez</t>
+          <t>Las Vigas De Ramírez</t>
         </is>
       </c>
       <c r="C1568">
@@ -20903,7 +20903,7 @@
     <row r="1569">
       <c r="B1569" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1569">
@@ -20955,7 +20955,7 @@
     <row r="1573">
       <c r="B1573" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1573">
@@ -20968,7 +20968,7 @@
     <row r="1574">
       <c r="B1574" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1574">
@@ -21020,7 +21020,7 @@
     <row r="1578">
       <c r="B1578" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C1578">
@@ -21046,7 +21046,7 @@
     <row r="1580">
       <c r="B1580" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C1580">
@@ -21144,7 +21144,7 @@
         <v>47</v>
       </c>
       <c r="D1587">
-        <v>0.0009711546408794115</v>
+        <v>0.0009711546408794116</v>
       </c>
     </row>
     <row r="1588">
@@ -21176,7 +21176,7 @@
     <row r="1590">
       <c r="B1590" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1590">
@@ -21215,7 +21215,7 @@
     <row r="1593">
       <c r="B1593" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1593">
@@ -21228,7 +21228,7 @@
     <row r="1594">
       <c r="B1594" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1594">
@@ -21267,7 +21267,7 @@
     <row r="1597">
       <c r="B1597" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1597">
@@ -21384,7 +21384,7 @@
     <row r="1606">
       <c r="B1606" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1606">
@@ -21436,7 +21436,7 @@
     <row r="1610">
       <c r="B1610" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1610">
@@ -21514,7 +21514,7 @@
     <row r="1616">
       <c r="B1616" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C1616">
@@ -21943,7 +21943,7 @@
     <row r="1649">
       <c r="B1649" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1649">
@@ -22073,7 +22073,7 @@
     <row r="1659">
       <c r="B1659" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C1659">
@@ -22086,7 +22086,7 @@
     <row r="1660">
       <c r="B1660" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C1660">
@@ -22317,7 +22317,7 @@
     <row r="1677">
       <c r="B1677" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1677">
@@ -22356,7 +22356,7 @@
     <row r="1680">
       <c r="B1680" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C1680">
@@ -22486,7 +22486,7 @@
     <row r="1690">
       <c r="B1690" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1690">
@@ -22564,7 +22564,7 @@
     <row r="1696">
       <c r="B1696" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1696">
@@ -22629,7 +22629,7 @@
     <row r="1701">
       <c r="B1701" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1701">
@@ -22642,7 +22642,7 @@
     <row r="1702">
       <c r="B1702" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1702">
@@ -22655,7 +22655,7 @@
     <row r="1703">
       <c r="B1703" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1703">
@@ -22701,7 +22701,7 @@
         <v>44</v>
       </c>
       <c r="D1706">
-        <v>0.0009091660467807257</v>
+        <v>0.0009091660467807255</v>
       </c>
     </row>
     <row r="1707">
@@ -22785,7 +22785,7 @@
     <row r="1713">
       <c r="B1713" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1713">
@@ -22798,7 +22798,7 @@
     <row r="1714">
       <c r="B1714" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1714">
@@ -22811,7 +22811,7 @@
     <row r="1715">
       <c r="B1715" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C1715">
@@ -22850,7 +22850,7 @@
     <row r="1718">
       <c r="B1718" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1718">
@@ -22949,41 +22949,6 @@
       </c>
       <c r="D1725">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1727">
-      <c r="A1727" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 566,547</t>
-        </is>
-      </c>
-    </row>
-    <row r="1728">
-      <c r="A1728" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1729">
-      <c r="A1729" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1730">
-      <c r="A1730" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1731">
-      <c r="A1731" t="inlineStr">
-        <is>
-          <t>Mayo de 2023</t>
-        </is>
       </c>
     </row>
   </sheetData>
